--- a/xmind files/Java常用类和方法.xlsx
+++ b/xmind files/Java常用类和方法.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16820"/>
+    <workbookView windowWidth="28800" windowHeight="13800" tabRatio="219"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117">
   <si>
     <t>类</t>
   </si>
@@ -29,6 +29,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
       <t>static void sort(</t>
     </r>
     <r>
@@ -37,6 +42,7 @@
         <i/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>array</t>
@@ -45,6 +51,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>)</t>
@@ -55,6 +62,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
       <t>static void sort(</t>
     </r>
     <r>
@@ -63,6 +75,7 @@
         <i/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>array, 下标i, 下标j</t>
@@ -71,6 +84,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>)</t>
@@ -81,6 +95,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
       <t>static int binarySearch(</t>
     </r>
     <r>
@@ -89,6 +108,7 @@
         <i/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>array, num</t>
@@ -97,6 +117,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>)</t>
@@ -130,6 +151,14 @@
     <t>打印数组</t>
   </si>
   <si>
+    <t>static ArrayList asList(array)</t>
+  </si>
+  <si>
+    <t>根据数组array创建列表，示例：
+String[] array = {"hello", "world", "!"}
+ArrayList&lt;String&gt; list = new ArrayList(Arrays.asList(array));</t>
+  </si>
+  <si>
     <t>Date</t>
   </si>
   <si>
@@ -328,6 +357,100 @@
   </si>
   <si>
     <t>减少用于字符串构建器的存储大小，将字符串构建器容量降至实际大小</t>
+  </si>
+  <si>
+    <t>Object</t>
+  </si>
+  <si>
+    <t>返回一个描述该对象的字符串，该对象所属类名@内存地址，通常应重写此方法</t>
+  </si>
+  <si>
+    <t>boolean equals(object o)</t>
+  </si>
+  <si>
+    <t>测试两个对象是否相等，o1.equals(o2)</t>
+  </si>
+  <si>
+    <t>ArrayList
+提供ArrayList类来存储不限定个数的对象</t>
+  </si>
+  <si>
+    <t>ArrayList&lt;Object&gt; arrayList = new ArrayList();</t>
+  </si>
+  <si>
+    <t>创建对象</t>
+  </si>
+  <si>
+    <t>void add(object)</t>
+  </si>
+  <si>
+    <t>在列表末尾增加一个新元素</t>
+  </si>
+  <si>
+    <t>void add(index, object)</t>
+  </si>
+  <si>
+    <t>在指定的下标处增加新元素</t>
+  </si>
+  <si>
+    <t>void clear()</t>
+  </si>
+  <si>
+    <t>清楚列表中所有元素</t>
+  </si>
+  <si>
+    <t>boolean contains(object)</t>
+  </si>
+  <si>
+    <t>如列表中包含object元素，返回true</t>
+  </si>
+  <si>
+    <t>E get(index)</t>
+  </si>
+  <si>
+    <t>返回下标index的元素</t>
+  </si>
+  <si>
+    <t>int indexOf(object)</t>
+  </si>
+  <si>
+    <t>返回第一个匹配object元素的下标</t>
+  </si>
+  <si>
+    <t>boolean isEmpty()</t>
+  </si>
+  <si>
+    <t>如果列表不包含任何元素，返回true</t>
+  </si>
+  <si>
+    <t>int lastIndexOf(object)</t>
+  </si>
+  <si>
+    <t>返回最后一个匹配object元素的下标</t>
+  </si>
+  <si>
+    <t>boolean remove(object)</t>
+  </si>
+  <si>
+    <t>删除列表中第一个匹配object的元素，并返回true</t>
+  </si>
+  <si>
+    <t>int size()</t>
+  </si>
+  <si>
+    <t>返回列表中元素个数</t>
+  </si>
+  <si>
+    <t>E remove(index)</t>
+  </si>
+  <si>
+    <t>删除指定下标位置的元素，如果元素被删除，返回true</t>
+  </si>
+  <si>
+    <t>E set(index, object)</t>
+  </si>
+  <si>
+    <t>设置index位置的元素为object</t>
   </si>
 </sst>
 </file>
@@ -335,17 +458,55 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -358,17 +519,60 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -381,51 +585,16 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -439,57 +608,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -497,9 +620,14 @@
       <i/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -511,6 +639,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -523,7 +687,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -535,13 +789,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -553,145 +819,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -738,26 +866,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -777,6 +892,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -792,13 +916,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -807,148 +935,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1284,18 +1412,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="B1:D38"/>
+  <dimension ref="B1:D54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="22.6875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="43.296875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="38.7578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="38.6875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="49.2890625" style="2" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1329,7 +1457,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" ht="51" spans="3:4">
+    <row r="4" ht="48" spans="3:4">
       <c r="C4" s="3" t="s">
         <v>8</v>
       </c>
@@ -1369,18 +1497,18 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" ht="17" spans="2:4">
-      <c r="B9" s="1" t="s">
+    <row r="9" ht="59" spans="3:4">
+      <c r="C9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="2" t="s">
+    </row>
+    <row r="10" ht="17" spans="2:4">
+      <c r="B10" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" ht="34" spans="3:4">
       <c r="C10" s="2" t="s">
         <v>21</v>
       </c>
@@ -1388,7 +1516,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" ht="31" spans="3:4">
+    <row r="11" ht="34" spans="3:4">
       <c r="C11" s="2" t="s">
         <v>23</v>
       </c>
@@ -1396,18 +1524,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" ht="17" spans="2:4">
-      <c r="B12" s="1" t="s">
+    <row r="12" ht="31" spans="3:4">
+      <c r="C12" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="2" t="s">
+    </row>
+    <row r="13" ht="17" spans="2:4">
+      <c r="B13" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="13" ht="17" spans="3:4">
       <c r="C13" s="2" t="s">
         <v>28</v>
       </c>
@@ -1423,18 +1551,18 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" ht="34" spans="2:4">
-      <c r="B15" s="1" t="s">
+    <row r="15" ht="17" spans="3:4">
+      <c r="C15" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="2" t="s">
+    </row>
+    <row r="16" ht="34" spans="2:4">
+      <c r="B16" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="16" ht="68" spans="3:4">
       <c r="C16" s="2" t="s">
         <v>35</v>
       </c>
@@ -1442,22 +1570,21 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" ht="34" spans="2:4">
-      <c r="B17" s="1" t="s">
+    <row r="17" ht="68" spans="3:4">
+      <c r="C17" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="18" ht="34" spans="2:4">
       <c r="B18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="2"/>
       <c r="D18" s="2" t="s">
         <v>41</v>
       </c>
@@ -1466,14 +1593,14 @@
       <c r="B19" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D19" s="2" t="s">
+    </row>
+    <row r="20" ht="34" spans="2:4">
+      <c r="B20" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="20" ht="34" spans="3:4">
       <c r="C20" s="2" t="s">
         <v>45</v>
       </c>
@@ -1489,7 +1616,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" ht="51" spans="3:4">
+    <row r="22" ht="34" spans="3:4">
       <c r="C22" s="2" t="s">
         <v>49</v>
       </c>
@@ -1497,7 +1624,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" ht="17" spans="3:4">
+    <row r="23" ht="51" spans="3:4">
       <c r="C23" s="2" t="s">
         <v>51</v>
       </c>
@@ -1521,18 +1648,18 @@
         <v>56</v>
       </c>
     </row>
-    <row r="26" ht="17" spans="2:4">
-      <c r="B26" s="1" t="s">
+    <row r="26" ht="17" spans="3:4">
+      <c r="C26" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="D26" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D26" s="2" t="s">
+    </row>
+    <row r="27" ht="17" spans="2:4">
+      <c r="B27" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="27" ht="17" spans="3:4">
       <c r="C27" s="2" t="s">
         <v>60</v>
       </c>
@@ -1620,7 +1747,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="38" ht="34" spans="3:4">
+    <row r="38" ht="17" spans="3:4">
       <c r="C38" s="2" t="s">
         <v>82</v>
       </c>
@@ -1628,9 +1755,143 @@
         <v>83</v>
       </c>
     </row>
+    <row r="39" ht="34" spans="3:4">
+      <c r="C39" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="40" ht="34" spans="2:4">
+      <c r="B40" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="41" ht="17" spans="3:4">
+      <c r="C41" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="42" ht="48" spans="2:4">
+      <c r="B42" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="43" ht="17" spans="3:4">
+      <c r="C43" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="44" ht="17" spans="3:4">
+      <c r="C44" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="45" ht="17" spans="3:4">
+      <c r="C45" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="46" ht="17" spans="3:4">
+      <c r="C46" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" ht="17" spans="3:4">
+      <c r="C47" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="48" ht="17" spans="3:4">
+      <c r="C48" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="49" ht="17" spans="3:4">
+      <c r="C49" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="50" ht="17" spans="3:4">
+      <c r="C50" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="51" ht="17" spans="3:4">
+      <c r="C51" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="52" ht="17" spans="3:4">
+      <c r="C52" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="53" ht="17" spans="3:4">
+      <c r="C53" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="54" ht="17" spans="3:4">
+      <c r="C54" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C18:C19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
